--- a/BalanceSheet/INCY_bal.xlsx
+++ b/BalanceSheet/INCY_bal.xlsx
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-10264000.0</v>
+        <v>16000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>180000.0</v>
+        <v>17000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-3672000.0</v>
+        <v>16000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-5712000.0</v>
+        <v>14000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-3187000.0</v>
+        <v>11000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>7365000.0</v>
@@ -1746,19 +1746,19 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>-23745000.0</v>
+        <v>99000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>31603000.0</v>
+        <v>123000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>29972000.0</v>
+        <v>91000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>-22710000.0</v>
+        <v>61000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>-11729000.0</v>
+        <v>84000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>95376000.0</v>
@@ -3114,7 +3114,7 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>-350000.0</v>
+        <v>-2000000.0</v>
       </c>
       <c r="C22" s="0" t="inlineStr">
         <is>
